--- a/biology/Médecine/Hypoxémie/Hypoxémie.xlsx
+++ b/biology/Médecine/Hypoxémie/Hypoxémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypox%C3%A9mie</t>
+          <t>Hypoxémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hypoxémie est la diminution de la quantité d'oxygène transportée dans le sang. La pression partielle en O2 diminue (synonyme généralement d'un mauvais échange entre les alvéoles pulmonaires et les capillaires sanguins). On parle d'hypoxémie lorsque la pression partielle d'O2 chute en dessous de PaO2 &lt; 80 mmHg[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hypoxémie est la diminution de la quantité d'oxygène transportée dans le sang. La pression partielle en O2 diminue (synonyme généralement d'un mauvais échange entre les alvéoles pulmonaires et les capillaires sanguins). On parle d'hypoxémie lorsque la pression partielle d'O2 chute en dessous de PaO2 &lt; 80 mmHg.
 Une hypoxémie peut notamment conduire à une hypoxie ou à une tachycardie.
 </t>
         </is>
